--- a/TCS_NEWUI_Multi tree.xlsx
+++ b/TCS_NEWUI_Multi tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E9ADCA-1BB3-4139-8AE7-8FC9260AAD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055A49B-C01C-46BD-BB3A-6A8562115027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,19 +47,11 @@
     <definedName name="test">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="181">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -1010,6 +1002,41 @@
   </si>
   <si>
     <t>Date Range - 5-jan-2015 to 19-may-2019</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>SMRT-7912</t>
+  </si>
+  <si>
+    <t>US:WEB-7648_TC 17</t>
+  </si>
+  <si>
+    <t>Verify Total count of data in "Category class" for each field should be same as data available of that option in tree</t>
+  </si>
+  <si>
+    <t>Verify Total count (0/5) of data in "Category class" for each field should be same as data available of that option in tree</t>
+  </si>
+  <si>
+    <t>Account : Brand canada
+Report : Print report by media
+Field : Category class</t>
+  </si>
+  <si>
+    <t>Verify  Category class field</t>
+  </si>
+  <si>
+    <t>Verify total count for "Entertainment Equipment" field
+for  i.e (0/8) count is given 
+Click on "&gt;" icon</t>
+  </si>
+  <si>
+    <t>Total option given in sub tree should be 8 not less than 8</t>
+  </si>
+  <si>
+    <t>Previously it was happening that for i.e for health care category overall total data is 13 but user has access of only 8 category. So issue was in count it was showing (0/13) and product was coming 8 in list
+Expected result - count also should be 8 (0/8)</t>
   </si>
 </sst>
 </file>
@@ -2669,6 +2696,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2677,15 +2713,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3191,7 +3218,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3494,10 +3521,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,7 +3720,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4676,7 +4703,7 @@
       </c>
       <c r="B8" s="10">
         <f>'SMART- Multi tree'!G7</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10">
         <f>'SMART- Multi tree'!G8</f>
@@ -4692,11 +4719,11 @@
       </c>
       <c r="F8" s="10">
         <f>SUM(B8:E8)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="15">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4714,7 +4741,7 @@
       </c>
       <c r="B10" s="16">
         <f>SUM(B8:B9)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(C8:C9)</f>
@@ -4730,11 +4757,11 @@
       </c>
       <c r="F10" s="16">
         <f>SUM(F8:F9)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="12">
         <f>SUM(G8:G8)</f>
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -4743,7 +4770,7 @@
       </c>
       <c r="G11" s="13">
         <f>100%-G10</f>
-        <v>0.33333333333333337</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4770,7 +4797,7 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5226,7 +5253,15 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="75"/>
-      <c r="B18"/>
+      <c r="B18" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="75"/>
@@ -5576,10 +5611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14479089-7CD9-4D53-9264-25F770CD02CB}">
-  <dimension ref="A1:H966"/>
+  <dimension ref="A1:H964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5590,7 +5625,7 @@
     <col min="4" max="4" width="35.85546875" style="39" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="39" customWidth="1"/>
     <col min="6" max="6" width="16" style="39" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="39" customWidth="1"/>
     <col min="8" max="8" width="31.140625" style="18" customWidth="1"/>
     <col min="9" max="110" width="8.7109375" style="18" customWidth="1"/>
     <col min="111" max="256" width="8.7109375" style="18"/>
@@ -6326,8 +6361,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="30">
-        <f>COUNTIF(G11:G1092,"Pass")</f>
-        <v>10</v>
+        <f>COUNTIF(G11:G1090,"Pass")</f>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -6342,7 +6377,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="30">
-        <f>COUNTIF(G12:G1093,"Fail")</f>
+        <f>COUNTIF(G12:G1091,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -6360,7 +6395,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="30">
-        <f>COUNTIF(G13:G1094,"Blocked")</f>
+        <f>COUNTIF(G13:G1092,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -6376,7 +6411,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="30">
-        <f>COUNTIF(G14:G1095,"Not Executed")</f>
+        <f>COUNTIF(G14:G1093,"Not Executed")</f>
         <v>5</v>
       </c>
     </row>
@@ -6387,7 +6422,7 @@
       </c>
       <c r="C11" s="21">
         <f>G7</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="19"/>
@@ -6573,12 +6608,12 @@
       <c r="A24" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="1:7" s="42" customFormat="1">
       <c r="A25" s="43" t="s">
@@ -6708,12 +6743,12 @@
       <c r="A32" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
     </row>
     <row r="33" spans="1:7" s="42" customFormat="1">
       <c r="A33" s="43" t="s">
@@ -6841,12 +6876,12 @@
       <c r="A40" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="81"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
     </row>
     <row r="41" spans="1:7" s="42" customFormat="1">
       <c r="A41" s="43" t="s">
@@ -6974,12 +7009,12 @@
       <c r="A48" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
     </row>
     <row r="49" spans="1:7" s="42" customFormat="1">
       <c r="A49" s="43" t="s">
@@ -7126,12 +7161,12 @@
       <c r="A57" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
     </row>
     <row r="58" spans="1:7" s="42" customFormat="1">
       <c r="A58" s="43" t="s">
@@ -7225,12 +7260,12 @@
       <c r="A63" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="79"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="81"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
     </row>
     <row r="64" spans="1:7" s="42" customFormat="1">
       <c r="A64" s="43" t="s">
@@ -7326,12 +7361,12 @@
       <c r="A69" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="79"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="81"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
     </row>
     <row r="70" spans="1:7" s="42" customFormat="1">
       <c r="A70" s="43" t="s">
@@ -7459,12 +7494,12 @@
       <c r="A77" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="79"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="81"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="78"/>
     </row>
     <row r="78" spans="1:7" s="42" customFormat="1">
       <c r="A78" s="43" t="s">
@@ -7488,14 +7523,14 @@
       <c r="A79" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="76" t="s">
+      <c r="B79" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="78"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="81"/>
     </row>
     <row r="80" spans="1:7" s="42" customFormat="1">
       <c r="A80" s="47" t="s">
@@ -7541,12 +7576,12 @@
       <c r="A82" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="79"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="81"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="78"/>
     </row>
     <row r="83" spans="1:7" s="42" customFormat="1">
       <c r="A83" s="43" t="s">
@@ -7570,14 +7605,14 @@
       <c r="A84" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="76" t="s">
+      <c r="B84" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="78"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="81"/>
     </row>
     <row r="85" spans="1:7" s="42" customFormat="1">
       <c r="A85" s="47" t="s">
@@ -7693,12 +7728,12 @@
       <c r="A91" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="79"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="81"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="78"/>
     </row>
     <row r="92" spans="1:7" s="42" customFormat="1">
       <c r="A92" s="43" t="s">
@@ -7722,14 +7757,14 @@
       <c r="A93" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="76" t="s">
+      <c r="B93" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C93" s="77"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="78"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="81"/>
     </row>
     <row r="94" spans="1:7" s="42" customFormat="1">
       <c r="A94" s="47" t="s">
@@ -7845,12 +7880,12 @@
       <c r="A100" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B100" s="79"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="81"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="78"/>
     </row>
     <row r="101" spans="1:7" s="42" customFormat="1">
       <c r="A101" s="43" t="s">
@@ -7874,14 +7909,14 @@
       <c r="A102" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B102" s="76" t="s">
+      <c r="B102" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="78"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="81"/>
     </row>
     <row r="103" spans="1:7" s="42" customFormat="1">
       <c r="A103" s="47" t="s">
@@ -7997,12 +8032,12 @@
       <c r="A109" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="79"/>
-      <c r="C109" s="80"/>
-      <c r="D109" s="80"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="81"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="78"/>
     </row>
     <row r="110" spans="1:7" s="42" customFormat="1">
       <c r="A110" s="43" t="s">
@@ -8026,14 +8061,14 @@
       <c r="A111" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="76" t="s">
+      <c r="B111" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="78"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80"/>
+      <c r="G111" s="81"/>
     </row>
     <row r="112" spans="1:7" s="42" customFormat="1">
       <c r="A112" s="47" t="s">
@@ -8185,12 +8220,12 @@
       <c r="A120" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B120" s="79"/>
-      <c r="C120" s="80"/>
-      <c r="D120" s="80"/>
-      <c r="E120" s="80"/>
-      <c r="F120" s="80"/>
-      <c r="G120" s="81"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="78"/>
     </row>
     <row r="121" spans="1:7" s="42" customFormat="1">
       <c r="A121" s="43" t="s">
@@ -8214,14 +8249,14 @@
       <c r="A122" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B122" s="76" t="s">
+      <c r="B122" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="78"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="81"/>
     </row>
     <row r="123" spans="1:7" s="42" customFormat="1">
       <c r="A123" s="47" t="s">
@@ -8352,12 +8387,12 @@
       <c r="A130" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B130" s="79"/>
-      <c r="C130" s="80"/>
-      <c r="D130" s="80"/>
-      <c r="E130" s="80"/>
-      <c r="F130" s="80"/>
-      <c r="G130" s="81"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="78"/>
     </row>
     <row r="131" spans="1:7" s="42" customFormat="1">
       <c r="A131" s="43" t="s">
@@ -8381,14 +8416,14 @@
       <c r="A132" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B132" s="76" t="s">
+      <c r="B132" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="77"/>
-      <c r="G132" s="78"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="81"/>
     </row>
     <row r="133" spans="1:7" s="42" customFormat="1">
       <c r="A133" s="47" t="s">
@@ -8519,84 +8554,149 @@
       <c r="A140" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B140" s="79"/>
-      <c r="C140" s="80"/>
-      <c r="D140" s="80"/>
-      <c r="E140" s="80"/>
-      <c r="F140" s="80"/>
-      <c r="G140" s="81"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141"/>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142"/>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144"/>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145"/>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146"/>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147"/>
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148"/>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
+      <c r="B140" s="76"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="78"/>
+    </row>
+    <row r="141" spans="1:7" s="42" customFormat="1">
+      <c r="A141" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="84"/>
+      <c r="F141" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="45" t="str">
+        <f>IF(COUNTIF(F144:F147,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F144:F147,"Fail")&gt;0,"Fail",IF(COUNTIF(F144:F147,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="42" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A142" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" s="80"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="81"/>
+    </row>
+    <row r="143" spans="1:7" s="42" customFormat="1">
+      <c r="A143" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F143" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G143" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="42" customFormat="1" ht="150">
+      <c r="A144" s="48">
+        <v>1</v>
+      </c>
+      <c r="B144" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E144" s="50"/>
+      <c r="F144" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" s="52"/>
+    </row>
+    <row r="145" spans="1:7" s="42" customFormat="1" ht="60">
+      <c r="A145" s="48">
+        <v>2</v>
+      </c>
+      <c r="B145" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C145" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" s="52"/>
+    </row>
+    <row r="146" spans="1:7" s="42" customFormat="1" ht="105">
+      <c r="A146" s="48">
+        <v>3</v>
+      </c>
+      <c r="B146" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" s="52"/>
+    </row>
+    <row r="147" spans="1:7" s="42" customFormat="1" ht="90">
+      <c r="A147" s="48">
+        <v>4</v>
+      </c>
+      <c r="B147" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="54" customFormat="1">
+      <c r="A148" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" s="76"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="78"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149"/>
@@ -8733,7 +8833,7 @@
       <c r="F163"/>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" ht="30.95" customHeight="1">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -8751,7 +8851,7 @@
       <c r="F165"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" ht="30.95" customHeight="1">
+    <row r="166" spans="1:7">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -11280,23 +11380,21 @@
       <c r="F446"/>
       <c r="G446"/>
     </row>
-    <row r="447" spans="1:7">
-      <c r="A447"/>
-      <c r="B447"/>
-      <c r="C447"/>
-      <c r="D447"/>
-      <c r="E447"/>
-      <c r="F447"/>
-      <c r="G447"/>
-    </row>
-    <row r="448" spans="1:7">
-      <c r="A448"/>
-      <c r="B448"/>
-      <c r="C448"/>
-      <c r="D448"/>
-      <c r="E448"/>
-      <c r="F448"/>
-      <c r="G448"/>
+    <row r="447" spans="1:7" ht="15.75">
+      <c r="A447" s="19"/>
+      <c r="B447" s="38"/>
+      <c r="C447" s="38"/>
+      <c r="D447" s="55"/>
+      <c r="E447" s="56"/>
+      <c r="F447" s="57"/>
+    </row>
+    <row r="448" spans="1:7" ht="15.75">
+      <c r="A448" s="19"/>
+      <c r="B448" s="38"/>
+      <c r="C448" s="38"/>
+      <c r="D448" s="55"/>
+      <c r="E448" s="56"/>
+      <c r="F448" s="57"/>
     </row>
     <row r="449" spans="1:8" ht="15.75">
       <c r="A449" s="19"/>
@@ -11306,21 +11404,23 @@
       <c r="E449" s="56"/>
       <c r="F449" s="57"/>
     </row>
-    <row r="450" spans="1:8" ht="15.75">
+    <row r="450" spans="1:8" s="39" customFormat="1" ht="15.75">
       <c r="A450" s="19"/>
       <c r="B450" s="38"/>
       <c r="C450" s="38"/>
       <c r="D450" s="55"/>
       <c r="E450" s="56"/>
       <c r="F450" s="57"/>
-    </row>
-    <row r="451" spans="1:8" ht="15.75">
+      <c r="H450" s="18"/>
+    </row>
+    <row r="451" spans="1:8" s="39" customFormat="1" ht="15.75">
       <c r="A451" s="19"/>
       <c r="B451" s="38"/>
       <c r="C451" s="38"/>
       <c r="D451" s="55"/>
       <c r="E451" s="56"/>
       <c r="F451" s="57"/>
+      <c r="H451" s="18"/>
     </row>
     <row r="452" spans="1:8" s="39" customFormat="1" ht="15.75">
       <c r="A452" s="19"/>
@@ -15939,38 +16039,35 @@
       <c r="F964" s="57"/>
       <c r="H964" s="18"/>
     </row>
-    <row r="965" spans="1:8" s="39" customFormat="1" ht="15.75">
-      <c r="A965" s="19"/>
-      <c r="B965" s="38"/>
-      <c r="C965" s="38"/>
-      <c r="D965" s="55"/>
-      <c r="E965" s="56"/>
-      <c r="F965" s="57"/>
-      <c r="H965" s="18"/>
-    </row>
-    <row r="966" spans="1:8" s="39" customFormat="1" ht="15.75">
-      <c r="A966" s="19"/>
-      <c r="B966" s="38"/>
-      <c r="C966" s="38"/>
-      <c r="D966" s="55"/>
-      <c r="E966" s="56"/>
-      <c r="F966" s="57"/>
-      <c r="H966" s="18"/>
-    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:G111"/>
+  <mergeCells count="52">
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B48:G48"/>
@@ -15984,33 +16081,21 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B131:E131"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F449:F451 F456:F462 F675:F677 F665:F670 F467:F476 F481:F484 F489:F494 F499:F507 F512:F521 F526:F536 F541:F551 F567:F573 F595:F597 F556:F562 F578:F584 F589:F590 F602:F608 F613:F619 F635:F637 F624:F630 F642:F645 F650:F652 F657:F660 F21:F23 F28:F31 F36:F39 F44:F47 F52:F56 F61:F62 F67:F68 F73:F76 F81 F86:F90 F95:F99 F104:F108 F113:F119 F124:F129 F134:F139" xr:uid="{59CD337E-F2A3-4555-8531-BBD5B92517F1}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F447:F449 F454:F460 F673:F675 F663:F668 F465:F474 F479:F482 F487:F492 F497:F505 F510:F519 F524:F534 F539:F549 F565:F571 F593:F595 F554:F560 F576:F582 F587:F588 F600:F606 F611:F617 F633:F635 F622:F628 F640:F643 F648:F650 F655:F658 F21:F23 F28:F31 F36:F39 F44:F47 F52:F56 F61:F62 F67:F68 F73:F76 F81 F86:F90 F95:F99 F104:F108 F113:F119 F124:F129 F134:F139 F144:F147" xr:uid="{59CD337E-F2A3-4555-8531-BBD5B92517F1}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_Multi tree.xlsx
+++ b/TCS_NEWUI_Multi tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055A49B-C01C-46BD-BB3A-6A8562115027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD99AD-18F4-4176-BCA0-A3311032FEF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -2696,6 +2696,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2704,24 +2722,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4796,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5613,9 +5613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14479089-7CD9-4D53-9264-25F770CD02CB}">
   <dimension ref="A1:H964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -6501,12 +6499,12 @@
       <c r="A18" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="44" t="s">
         <v>42</v>
       </c>
@@ -6608,23 +6606,23 @@
       <c r="A24" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" spans="1:7" s="42" customFormat="1">
       <c r="A25" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="44" t="s">
         <v>42</v>
       </c>
@@ -6743,23 +6741,23 @@
       <c r="A32" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
     </row>
     <row r="33" spans="1:7" s="42" customFormat="1">
       <c r="A33" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="44" t="s">
         <v>42</v>
       </c>
@@ -6876,23 +6874,23 @@
       <c r="A40" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="78"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="84"/>
     </row>
     <row r="41" spans="1:7" s="42" customFormat="1">
       <c r="A41" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="78"/>
       <c r="F41" s="44" t="s">
         <v>42</v>
       </c>
@@ -7009,23 +7007,23 @@
       <c r="A48" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="78"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="84"/>
     </row>
     <row r="49" spans="1:7" s="42" customFormat="1">
       <c r="A49" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="84"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="78"/>
       <c r="F49" s="44" t="s">
         <v>42</v>
       </c>
@@ -7161,23 +7159,23 @@
       <c r="A57" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="84"/>
     </row>
     <row r="58" spans="1:7" s="42" customFormat="1">
       <c r="A58" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="82" t="s">
+      <c r="B58" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="84"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="78"/>
       <c r="F58" s="44" t="s">
         <v>42</v>
       </c>
@@ -7260,23 +7258,23 @@
       <c r="A63" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="78"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
     </row>
     <row r="64" spans="1:7" s="42" customFormat="1">
       <c r="A64" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="84"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="78"/>
       <c r="F64" s="44" t="s">
         <v>42</v>
       </c>
@@ -7361,23 +7359,23 @@
       <c r="A69" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="78"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="84"/>
     </row>
     <row r="70" spans="1:7" s="42" customFormat="1">
       <c r="A70" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="82" t="s">
+      <c r="B70" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="84"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="78"/>
       <c r="F70" s="44" t="s">
         <v>42</v>
       </c>
@@ -7494,23 +7492,23 @@
       <c r="A77" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="76"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="78"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="84"/>
     </row>
     <row r="78" spans="1:7" s="42" customFormat="1">
       <c r="A78" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="82" t="s">
+      <c r="B78" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="84"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="78"/>
       <c r="F78" s="44" t="s">
         <v>42</v>
       </c>
@@ -7576,23 +7574,23 @@
       <c r="A82" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="76"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="78"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="84"/>
     </row>
     <row r="83" spans="1:7" s="42" customFormat="1">
       <c r="A83" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="82" t="s">
+      <c r="B83" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="84"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="78"/>
       <c r="F83" s="44" t="s">
         <v>42</v>
       </c>
@@ -7728,23 +7726,23 @@
       <c r="A91" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="76"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="78"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="84"/>
     </row>
     <row r="92" spans="1:7" s="42" customFormat="1">
       <c r="A92" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="82" t="s">
+      <c r="B92" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="84"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="78"/>
       <c r="F92" s="44" t="s">
         <v>42</v>
       </c>
@@ -7880,23 +7878,23 @@
       <c r="A100" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B100" s="76"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="78"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="84"/>
     </row>
     <row r="101" spans="1:7" s="42" customFormat="1">
       <c r="A101" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B101" s="82" t="s">
+      <c r="B101" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="83"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="84"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="78"/>
       <c r="F101" s="44" t="s">
         <v>42</v>
       </c>
@@ -8032,23 +8030,23 @@
       <c r="A109" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="76"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="78"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="84"/>
     </row>
     <row r="110" spans="1:7" s="42" customFormat="1">
       <c r="A110" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="82" t="s">
+      <c r="B110" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="84"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="78"/>
       <c r="F110" s="44" t="s">
         <v>42</v>
       </c>
@@ -8220,23 +8218,23 @@
       <c r="A120" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B120" s="76"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="78"/>
+      <c r="B120" s="82"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="84"/>
     </row>
     <row r="121" spans="1:7" s="42" customFormat="1">
       <c r="A121" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B121" s="82" t="s">
+      <c r="B121" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="84"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="78"/>
       <c r="F121" s="44" t="s">
         <v>42</v>
       </c>
@@ -8387,23 +8385,23 @@
       <c r="A130" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B130" s="76"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="78"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
+      <c r="G130" s="84"/>
     </row>
     <row r="131" spans="1:7" s="42" customFormat="1">
       <c r="A131" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="82" t="s">
+      <c r="B131" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C131" s="83"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="84"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="78"/>
       <c r="F131" s="44" t="s">
         <v>42</v>
       </c>
@@ -8554,23 +8552,23 @@
       <c r="A140" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B140" s="76"/>
-      <c r="C140" s="77"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="77"/>
-      <c r="G140" s="78"/>
+      <c r="B140" s="82"/>
+      <c r="C140" s="83"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="84"/>
     </row>
     <row r="141" spans="1:7" s="42" customFormat="1">
       <c r="A141" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B141" s="82" t="s">
+      <c r="B141" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="84"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="78"/>
       <c r="F141" s="44" t="s">
         <v>42</v>
       </c>
@@ -8691,12 +8689,12 @@
       <c r="A148" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B148" s="76"/>
-      <c r="C148" s="77"/>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="78"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="83"/>
+      <c r="G148" s="84"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149"/>
@@ -16041,33 +16039,10 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B131:E131"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B48:G48"/>
@@ -16081,6 +16056,33 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B100:G100"/>
     <mergeCell ref="B101:E101"/>
     <mergeCell ref="B102:G102"/>
     <mergeCell ref="B109:G109"/>
@@ -16089,10 +16091,6 @@
     <mergeCell ref="B140:G140"/>
     <mergeCell ref="B132:G132"/>
     <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B131:E131"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F447:F449 F454:F460 F673:F675 F663:F668 F465:F474 F479:F482 F487:F492 F497:F505 F510:F519 F524:F534 F539:F549 F565:F571 F593:F595 F554:F560 F576:F582 F587:F588 F600:F606 F611:F617 F633:F635 F622:F628 F640:F643 F648:F650 F655:F658 F21:F23 F28:F31 F36:F39 F44:F47 F52:F56 F61:F62 F67:F68 F73:F76 F81 F86:F90 F95:F99 F104:F108 F113:F119 F124:F129 F134:F139 F144:F147" xr:uid="{59CD337E-F2A3-4555-8531-BBD5B92517F1}">
